--- a/Mapping field in XML DTA-BF.xlsx
+++ b/Mapping field in XML DTA-BF.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Su\GA\IT Request\Dev\1A20240855 GAPP\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUREEWAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01DD04C4-1964-45F7-943E-5C3ACA017F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8157A-FC2E-4DDB-9D29-91C8FB2C952B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85DE06FE-4296-4A34-AB67-5685E0C33211}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85DE06FE-4296-4A34-AB67-5685E0C33211}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -76,7 +74,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -441,94 +439,94 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>A2+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
